--- a/Shablon/DSO6102A_first.xlsx
+++ b/Shablon/DSO6102A_first.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="320">
   <si>
     <t>Канал 1</t>
   </si>
@@ -470,15 +470,6 @@
     </r>
   </si>
   <si>
-    <t>1  Внешний осмотр (п.16.6.1): _______________</t>
-  </si>
-  <si>
-    <t>2 Опробование (п.16.6.2): _______________</t>
-  </si>
-  <si>
-    <t>3 Калибровка (п.16.6.3): _______________</t>
-  </si>
-  <si>
     <t>4 Определение метрологических параметров (п.16.6.4)</t>
   </si>
   <si>
@@ -937,23 +928,6 @@
     <t>pdb2_7</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Протокол № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/30-05-2022/</t>
-    </r>
-  </si>
-  <si>
     <t>dcv1+_1</t>
   </si>
   <si>
@@ -1288,6 +1262,15 @@
   </si>
   <si>
     <t>gdcv2-_14</t>
+  </si>
+  <si>
+    <t>1  Внешний осмотр (п.16.6.1): соответствует</t>
+  </si>
+  <si>
+    <t>2 Опробование (п.16.6.2): соответствует</t>
+  </si>
+  <si>
+    <t>3 Калибровка (п.16.6.3): соответствует</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1696,12 +1679,147 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1709,45 +1827,58 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1769,172 +1900,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2271,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O248"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A134" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145:F145"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2285,91 +2261,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="115" t="str">
+        <f>"Протокол поверки № 10/"&amp;C146&amp;"/"&amp;D11</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
@@ -2396,31 +2371,31 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="28"/>
       <c r="G10" s="43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="A11" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -2430,11 +2405,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -2444,13 +2419,13 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -2460,13 +2435,13 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -2476,65 +2451,65 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
+      <c r="A19" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -2592,20 +2567,20 @@
       <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79" t="s">
+      <c r="F23" s="99"/>
+      <c r="G23" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="79"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -2615,20 +2590,20 @@
       <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="102"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -2638,20 +2613,20 @@
       <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="102"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -2661,20 +2636,20 @@
       <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="82"/>
+      <c r="H26" s="102"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -2696,30 +2671,30 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="A28" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
     </row>
     <row r="29" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -2735,7 +2710,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2761,7 +2736,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2787,7 +2762,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2812,18 +2787,18 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -2838,17 +2813,17 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
+      <c r="A39" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,95 +2839,95 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56" t="s">
+      <c r="D41" s="73"/>
+      <c r="E41" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="71" t="s">
+      <c r="F41" s="73"/>
+      <c r="G41" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="I41" s="65" t="s">
+      <c r="I41" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="J41" s="66"/>
+      <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="108"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="108"/>
     </row>
     <row r="45" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="70"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="93"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
@@ -2961,24 +2936,24 @@
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="49"/>
+      <c r="C47" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="87"/>
       <c r="G47" s="42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="58"/>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
@@ -2987,24 +2962,24 @@
       <c r="B48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="49"/>
+      <c r="C48" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="87"/>
       <c r="G48" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="I48" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="58"/>
+      <c r="J48" s="94"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
@@ -3013,24 +2988,24 @@
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="49"/>
+      <c r="C49" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="87"/>
       <c r="G49" s="42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="58"/>
+      <c r="J49" s="94"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
@@ -3039,24 +3014,24 @@
       <c r="B50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="49"/>
+      <c r="C50" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="87"/>
       <c r="G50" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="I50" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="58"/>
+      <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
@@ -3065,24 +3040,24 @@
       <c r="B51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" s="49"/>
+      <c r="C51" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="87"/>
       <c r="G51" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H51" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="I51" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="I51" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="58"/>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
@@ -3091,24 +3066,24 @@
       <c r="B52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="49"/>
+      <c r="C52" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="87"/>
       <c r="G52" s="42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H52" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="I52" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="58"/>
+      <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
@@ -3117,24 +3092,24 @@
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="49"/>
+      <c r="C53" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="87"/>
+      <c r="E53" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="F53" s="87"/>
       <c r="G53" s="42" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H53" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="I53" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="58"/>
+      <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
@@ -3143,24 +3118,24 @@
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="49"/>
+      <c r="C54" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="87"/>
       <c r="G54" s="42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H54" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="I54" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="58"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
@@ -3169,24 +3144,24 @@
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="49"/>
+      <c r="C55" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="87"/>
+      <c r="E55" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="87"/>
       <c r="G55" s="42" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="I55" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="I55" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="58"/>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
@@ -3195,76 +3170,76 @@
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="49"/>
+      <c r="C56" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="87"/>
+      <c r="E56" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="87"/>
       <c r="G56" s="42" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="58"/>
+      <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>5000</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="87"/>
+      <c r="E57" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="87"/>
       <c r="G57" s="42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="I57" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I57" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="58"/>
+      <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>5000</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="F58" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="87"/>
+      <c r="E58" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="87"/>
       <c r="G58" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H58" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="I58" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="58"/>
+      <c r="J58" s="94"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
@@ -3273,24 +3248,24 @@
       <c r="B59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="49"/>
+      <c r="C59" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="87"/>
+      <c r="E59" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="87"/>
       <c r="G59" s="42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="I59" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="58"/>
+      <c r="J59" s="94"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
@@ -3299,38 +3274,38 @@
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="49"/>
+      <c r="C60" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="87"/>
+      <c r="E60" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="87"/>
       <c r="G60" s="42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H60" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="I60" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="58"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="52"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="93"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
@@ -3339,24 +3314,24 @@
       <c r="B62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="49"/>
+      <c r="C62" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="87"/>
       <c r="G62" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H62" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="I62" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="54"/>
+      <c r="J62" s="76"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
@@ -3365,24 +3340,24 @@
       <c r="B63" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="F63" s="49"/>
+      <c r="C63" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="87"/>
+      <c r="E63" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="87"/>
       <c r="G63" s="42" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H63" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I63" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I63" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="54"/>
+      <c r="J63" s="76"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
@@ -3391,24 +3366,24 @@
       <c r="B64" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="F64" s="49"/>
+      <c r="C64" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="87"/>
+      <c r="E64" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="87"/>
       <c r="G64" s="42" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="I64" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="I64" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J64" s="54"/>
+      <c r="J64" s="76"/>
     </row>
     <row r="65" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
@@ -3417,24 +3392,24 @@
       <c r="B65" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="F65" s="49"/>
+      <c r="C65" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="87"/>
       <c r="G65" s="42" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H65" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="I65" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I65" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="54"/>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
@@ -3443,24 +3418,24 @@
       <c r="B66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F66" s="49"/>
+      <c r="C66" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="87"/>
+      <c r="E66" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="87"/>
       <c r="G66" s="42" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I66" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="54"/>
+      <c r="J66" s="76"/>
     </row>
     <row r="67" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
@@ -3469,24 +3444,24 @@
       <c r="B67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="F67" s="49"/>
+      <c r="C67" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="87"/>
+      <c r="E67" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="87"/>
       <c r="G67" s="42" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H67" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="I67" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I67" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="54"/>
+      <c r="J67" s="76"/>
     </row>
     <row r="68" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
@@ -3495,24 +3470,24 @@
       <c r="B68" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" s="49"/>
+      <c r="C68" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="87"/>
+      <c r="E68" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" s="87"/>
       <c r="G68" s="42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="I68" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="I68" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="54"/>
+      <c r="J68" s="76"/>
     </row>
     <row r="69" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
@@ -3521,24 +3496,24 @@
       <c r="B69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="F69" s="49"/>
+      <c r="C69" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="87"/>
       <c r="G69" s="42" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H69" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="I69" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="I69" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="59"/>
+      <c r="J69" s="82"/>
     </row>
     <row r="70" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
@@ -3547,24 +3522,24 @@
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="F70" s="49"/>
+      <c r="C70" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="87"/>
+      <c r="E70" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="87"/>
       <c r="G70" s="42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H70" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="I70" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="I70" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="J70" s="59"/>
+      <c r="J70" s="82"/>
     </row>
     <row r="71" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
@@ -3573,76 +3548,76 @@
       <c r="B71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="49"/>
+      <c r="C71" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="87"/>
+      <c r="E71" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="87"/>
       <c r="G71" s="42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="I71" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="I71" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="54"/>
+      <c r="J71" s="76"/>
     </row>
     <row r="72" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>5000</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="F72" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="C72" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" s="87"/>
+      <c r="E72" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="F72" s="87"/>
       <c r="G72" s="42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H72" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="I72" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="I72" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J72" s="58"/>
+      <c r="J72" s="94"/>
     </row>
     <row r="73" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>5000</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="87"/>
       <c r="G73" s="42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H73" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="I73" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="I73" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="58"/>
+      <c r="J73" s="94"/>
     </row>
     <row r="74" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
@@ -3651,24 +3626,24 @@
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="F74" s="49"/>
+      <c r="C74" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="87"/>
+      <c r="E74" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="87"/>
       <c r="G74" s="42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="I74" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="I74" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J74" s="58"/>
+      <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
@@ -3677,24 +3652,24 @@
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="F75" s="49"/>
+      <c r="C75" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="87"/>
+      <c r="E75" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="87"/>
       <c r="G75" s="42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="I75" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="I75" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="58"/>
+      <c r="J75" s="94"/>
     </row>
     <row r="76" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
@@ -3711,17 +3686,17 @@
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
+      <c r="A77" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
       <c r="J77" s="5"/>
       <c r="M77" s="18"/>
       <c r="N77" s="18"/>
@@ -3744,27 +3719,27 @@
     </row>
     <row r="79" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56" t="s">
+      <c r="C79" s="73"/>
+      <c r="D79" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="56"/>
+      <c r="E79" s="73"/>
       <c r="F79" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J79" s="16" t="s">
         <v>29</v>
@@ -3774,98 +3749,98 @@
       <c r="O79" s="18"/>
     </row>
     <row r="80" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="57">
+        <v>129</v>
+      </c>
+      <c r="B81" s="81">
         <v>2</v>
       </c>
-      <c r="C81" s="59"/>
-      <c r="D81" s="57" t="s">
+      <c r="C81" s="82"/>
+      <c r="D81" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="82"/>
+      <c r="F81" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J81" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="E81" s="59"/>
-      <c r="F81" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="I81" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="57">
+        <v>130</v>
+      </c>
+      <c r="B82" s="81">
         <v>5</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="57" t="s">
+      <c r="C82" s="82"/>
+      <c r="D82" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="82"/>
+      <c r="F82" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G82" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J82" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="E82" s="59"/>
-      <c r="F82" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G82" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H82" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I82" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="57">
+        <v>131</v>
+      </c>
+      <c r="B83" s="81">
         <v>10</v>
       </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="59"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="82"/>
       <c r="F83" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H83" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H83" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="I83" s="39" t="s">
-        <v>157</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>30</v>
@@ -3873,181 +3848,181 @@
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="57">
+        <v>132</v>
+      </c>
+      <c r="B84" s="81">
         <v>200</v>
       </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="59"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="82"/>
       <c r="F84" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="G84" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H84" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="I84" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="J84" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B85" s="57">
+        <v>127</v>
+      </c>
+      <c r="B85" s="81">
         <v>500</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="59"/>
+      <c r="C85" s="82"/>
+      <c r="D85" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="82"/>
       <c r="F85" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H85" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G85" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I85" s="39" t="s">
-        <v>165</v>
-      </c>
       <c r="J85" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="57">
+      <c r="B86" s="81">
         <v>5000</v>
       </c>
-      <c r="C86" s="59"/>
-      <c r="D86" s="57" t="s">
+      <c r="C86" s="82"/>
+      <c r="D86" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E86" s="59"/>
+      <c r="E86" s="82"/>
       <c r="F86" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="G86" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I86" s="39" t="s">
-        <v>169</v>
-      </c>
       <c r="J86" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A88" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="57">
+        <v>129</v>
+      </c>
+      <c r="B88" s="81">
         <v>2</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="57" t="s">
+      <c r="C88" s="82"/>
+      <c r="D88" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="82"/>
+      <c r="F88" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H88" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I88" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J88" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="G88" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="I88" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="J88" s="40" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A89" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="57">
+        <v>130</v>
+      </c>
+      <c r="B89" s="81">
         <v>5</v>
       </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="57" t="s">
+      <c r="C89" s="82"/>
+      <c r="D89" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="82"/>
+      <c r="F89" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H89" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J89" s="40" t="s">
         <v>137</v>
-      </c>
-      <c r="E89" s="59"/>
-      <c r="F89" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G89" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="H89" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I89" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="J89" s="40" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A90" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B90" s="57">
+        <v>131</v>
+      </c>
+      <c r="B90" s="81">
         <v>10</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E90" s="59"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="82"/>
       <c r="F90" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I90" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H90" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="I90" s="39" t="s">
-        <v>181</v>
       </c>
       <c r="J90" s="40" t="s">
         <v>30</v>
@@ -4055,86 +4030,86 @@
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A91" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="57">
+        <v>132</v>
+      </c>
+      <c r="B91" s="81">
         <v>200</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="59"/>
+      <c r="C91" s="82"/>
+      <c r="D91" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="82"/>
       <c r="F91" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H91" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I91" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="I91" s="39" t="s">
-        <v>185</v>
-      </c>
       <c r="J91" s="40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A92" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="57">
+        <v>127</v>
+      </c>
+      <c r="B92" s="81">
         <v>500</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="59"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="82"/>
       <c r="F92" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="G92" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="H92" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="I92" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="J92" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A93" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="57">
+      <c r="B93" s="81">
         <v>5000</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="57" t="s">
+      <c r="C93" s="82"/>
+      <c r="D93" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="59"/>
+      <c r="E93" s="82"/>
       <c r="F93" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H93" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G93" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H93" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="I93" s="39" t="s">
-        <v>193</v>
-      </c>
       <c r="J93" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4150,18 +4125,18 @@
       <c r="J94" s="25"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
+      <c r="A95" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="116"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
     </row>
     <row r="96" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
@@ -4176,330 +4151,330 @@
       <c r="J96" s="6"/>
     </row>
     <row r="97" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="83" t="s">
         <v>27</v>
       </c>
       <c r="B97" s="88"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="56" t="s">
+      <c r="C97" s="84"/>
+      <c r="D97" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E97" s="56"/>
+      <c r="E97" s="73"/>
       <c r="F97" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G97" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="H97" s="56"/>
-      <c r="I97" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="J97" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="G97" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" s="73"/>
+      <c r="I97" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="J97" s="93"/>
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="94"/>
-      <c r="C98" s="94"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="94"/>
-      <c r="I98" s="94"/>
-      <c r="J98" s="94"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
       <c r="K98" s="11"/>
     </row>
     <row r="99" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="53">
+      <c r="A99" s="75">
         <v>200</v>
       </c>
-      <c r="B99" s="90"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="55">
+      <c r="B99" s="89"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="45">
         <v>500</v>
       </c>
-      <c r="E99" s="55"/>
+      <c r="E99" s="45"/>
       <c r="F99" s="10">
         <v>1</v>
       </c>
-      <c r="G99" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="H99" s="87"/>
-      <c r="I99" s="53">
+      <c r="G99" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="H99" s="47"/>
+      <c r="I99" s="75">
         <v>3</v>
       </c>
-      <c r="J99" s="54"/>
+      <c r="J99" s="76"/>
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="83"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="55">
+      <c r="A100" s="77"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="45">
         <v>50</v>
       </c>
-      <c r="E100" s="55"/>
+      <c r="E100" s="45"/>
       <c r="F100" s="10">
         <v>10</v>
       </c>
-      <c r="G100" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="H100" s="87"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="84"/>
+      <c r="G100" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" s="47"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="78"/>
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="83"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="55">
+      <c r="A101" s="77"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="45">
         <v>5</v>
       </c>
-      <c r="E101" s="55"/>
+      <c r="E101" s="45"/>
       <c r="F101" s="10">
         <v>100</v>
       </c>
-      <c r="G101" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="H101" s="87"/>
-      <c r="I101" s="83"/>
-      <c r="J101" s="84"/>
+      <c r="G101" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H101" s="47"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="78"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="83"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="55">
+      <c r="A102" s="77"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="45">
         <v>2</v>
       </c>
-      <c r="E102" s="55"/>
+      <c r="E102" s="45"/>
       <c r="F102" s="10">
         <v>250</v>
       </c>
-      <c r="G102" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="H102" s="87"/>
-      <c r="I102" s="83"/>
-      <c r="J102" s="84"/>
+      <c r="G102" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="H102" s="47"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="78"/>
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="83"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="55">
+      <c r="A103" s="77"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="45">
         <v>1</v>
       </c>
-      <c r="E103" s="55"/>
+      <c r="E103" s="45"/>
       <c r="F103" s="10">
         <v>500</v>
       </c>
-      <c r="G103" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="H103" s="87"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="84"/>
+      <c r="G103" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H103" s="47"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="78"/>
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="83"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="55">
+      <c r="A104" s="77"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="45">
         <v>0.5</v>
       </c>
-      <c r="E104" s="55"/>
+      <c r="E104" s="45"/>
       <c r="F104" s="10">
         <v>750</v>
       </c>
-      <c r="G104" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="H104" s="87"/>
-      <c r="I104" s="83"/>
-      <c r="J104" s="84"/>
+      <c r="G104" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H104" s="47"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="78"/>
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="85"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="55">
+      <c r="A105" s="79"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="45">
         <v>0.5</v>
       </c>
-      <c r="E105" s="55"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="10">
         <v>1000</v>
       </c>
-      <c r="G105" s="87" t="s">
+      <c r="G105" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" s="47"/>
+      <c r="I105" s="79"/>
+      <c r="J105" s="80"/>
+      <c r="K105" s="12"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="12"/>
+    </row>
+    <row r="107" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="75">
         <v>200</v>
       </c>
-      <c r="H105" s="87"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="86"/>
-      <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="94"/>
-      <c r="H106" s="94"/>
-      <c r="I106" s="94"/>
-      <c r="J106" s="94"/>
-      <c r="K106" s="12"/>
-    </row>
-    <row r="107" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="53">
-        <v>200</v>
-      </c>
-      <c r="B107" s="90"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55">
+      <c r="B107" s="89"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="45">
         <v>500</v>
       </c>
-      <c r="E107" s="55"/>
+      <c r="E107" s="45"/>
       <c r="F107" s="10">
         <v>1</v>
       </c>
-      <c r="G107" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="H107" s="87"/>
-      <c r="I107" s="53">
+      <c r="G107" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H107" s="47"/>
+      <c r="I107" s="75">
         <v>3</v>
       </c>
-      <c r="J107" s="54"/>
+      <c r="J107" s="76"/>
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="83"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="55">
+      <c r="A108" s="77"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="45">
         <v>50</v>
       </c>
-      <c r="E108" s="55"/>
+      <c r="E108" s="45"/>
       <c r="F108" s="10">
         <v>10</v>
       </c>
-      <c r="G108" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="H108" s="87"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="84"/>
+      <c r="G108" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H108" s="47"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="78"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="83"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="55">
+      <c r="A109" s="77"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="45">
         <v>5</v>
       </c>
-      <c r="E109" s="55"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="10">
         <v>100</v>
       </c>
-      <c r="G109" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="H109" s="87"/>
-      <c r="I109" s="83"/>
-      <c r="J109" s="84"/>
+      <c r="G109" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="H109" s="47"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="78"/>
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="83"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="55">
+      <c r="A110" s="77"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="45">
         <v>2</v>
       </c>
-      <c r="E110" s="55"/>
+      <c r="E110" s="45"/>
       <c r="F110" s="10">
         <v>250</v>
       </c>
-      <c r="G110" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="H110" s="87"/>
-      <c r="I110" s="83"/>
-      <c r="J110" s="84"/>
+      <c r="G110" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="78"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="83"/>
-      <c r="B111" s="91"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="55">
+      <c r="A111" s="77"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="45">
         <v>1</v>
       </c>
-      <c r="E111" s="55"/>
+      <c r="E111" s="45"/>
       <c r="F111" s="10">
         <v>500</v>
       </c>
-      <c r="G111" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="H111" s="87"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="84"/>
+      <c r="G111" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="78"/>
       <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="83"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="55">
+      <c r="A112" s="77"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="45">
         <v>0.5</v>
       </c>
-      <c r="E112" s="55"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="10">
         <v>750</v>
       </c>
-      <c r="G112" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="H112" s="87"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="84"/>
+      <c r="G112" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" s="47"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="78"/>
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="85"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="55">
+      <c r="A113" s="79"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="45">
         <v>0.5</v>
       </c>
-      <c r="E113" s="55"/>
+      <c r="E113" s="45"/>
       <c r="F113" s="10">
         <v>1000</v>
       </c>
-      <c r="G113" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="H113" s="87"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="86"/>
+      <c r="G113" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H113" s="47"/>
+      <c r="I113" s="79"/>
+      <c r="J113" s="80"/>
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4515,18 +4490,18 @@
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
+      <c r="A115" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="116"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="116"/>
+      <c r="G115" s="116"/>
+      <c r="H115" s="116"/>
+      <c r="I115" s="116"/>
+      <c r="J115" s="116"/>
     </row>
     <row r="116" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
@@ -4544,18 +4519,18 @@
       <c r="A117" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="56"/>
-      <c r="D117" s="95" t="s">
+      <c r="C117" s="73"/>
+      <c r="D117" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="95"/>
-      <c r="F117" s="95" t="s">
+      <c r="E117" s="72"/>
+      <c r="F117" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G117" s="95"/>
+      <c r="G117" s="72"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="6"/>
@@ -4565,18 +4540,18 @@
       <c r="A118" s="10">
         <v>1</v>
       </c>
-      <c r="B118" s="55">
+      <c r="B118" s="45">
         <v>50</v>
       </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="E118" s="96"/>
-      <c r="F118" s="55">
+      <c r="C118" s="45"/>
+      <c r="D118" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="85"/>
+      <c r="F118" s="45">
         <v>350</v>
       </c>
-      <c r="G118" s="55"/>
+      <c r="G118" s="45"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="6"/>
@@ -4586,14 +4561,14 @@
       <c r="A119" s="10">
         <v>2</v>
       </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E119" s="96"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E119" s="85"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="6"/>
@@ -4612,18 +4587,18 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
+      <c r="A121" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" s="116"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="116"/>
+      <c r="H121" s="116"/>
+      <c r="I121" s="116"/>
+      <c r="J121" s="116"/>
     </row>
     <row r="122" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
@@ -4638,38 +4613,38 @@
       <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="56" t="s">
+      <c r="A123" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B123" s="56"/>
-      <c r="C123" s="50" t="s">
+      <c r="B123" s="73"/>
+      <c r="C123" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="89"/>
-      <c r="E123" s="56" t="s">
+      <c r="D123" s="84"/>
+      <c r="E123" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="95" t="s">
+      <c r="F123" s="73"/>
+      <c r="G123" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H123" s="95"/>
+      <c r="H123" s="72"/>
       <c r="I123" s="6"/>
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="55">
+      <c r="A124" s="45">
         <v>10</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55" t="s">
+      <c r="B124" s="45"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H124" s="55"/>
+      <c r="H124" s="45"/>
       <c r="I124" s="6"/>
       <c r="J124" s="4"/>
     </row>
@@ -4686,18 +4661,18 @@
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="60"/>
+      <c r="A126" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="116"/>
+      <c r="C126" s="116"/>
+      <c r="D126" s="116"/>
+      <c r="E126" s="116"/>
+      <c r="F126" s="116"/>
+      <c r="G126" s="116"/>
+      <c r="H126" s="116"/>
+      <c r="I126" s="116"/>
+      <c r="J126" s="116"/>
     </row>
     <row r="127" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
@@ -4713,7 +4688,7 @@
     </row>
     <row r="128" spans="1:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>49</v>
@@ -4746,7 +4721,7 @@
       <c r="M128" s="20"/>
     </row>
     <row r="129" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="55">
+      <c r="A129" s="45">
         <v>8</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -4773,14 +4748,14 @@
       <c r="I129" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J129" s="55" t="s">
+      <c r="J129" s="45" t="s">
         <v>58</v>
       </c>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="15" t="s">
         <v>39</v>
       </c>
@@ -4805,12 +4780,12 @@
       <c r="I130" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J130" s="55"/>
+      <c r="J130" s="45"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
     </row>
     <row r="131" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="55">
+      <c r="A131" s="45">
         <v>0</v>
       </c>
       <c r="B131" s="15" t="s">
@@ -4837,14 +4812,14 @@
       <c r="I131" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J131" s="55" t="s">
+      <c r="J131" s="45" t="s">
         <v>68</v>
       </c>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
     </row>
     <row r="132" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="15" t="s">
         <v>39</v>
       </c>
@@ -4869,12 +4844,12 @@
       <c r="I132" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J132" s="55"/>
+      <c r="J132" s="45"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
     </row>
     <row r="133" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="55">
+      <c r="A133" s="45">
         <v>-8</v>
       </c>
       <c r="B133" s="15" t="s">
@@ -4901,14 +4876,14 @@
       <c r="I133" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J133" s="56" t="s">
+      <c r="J133" s="73" t="s">
         <v>59</v>
       </c>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
     </row>
     <row r="134" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="55"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="15" t="s">
         <v>39</v>
       </c>
@@ -4933,7 +4908,7 @@
       <c r="I134" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J134" s="56"/>
+      <c r="J134" s="73"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
     </row>
@@ -4966,7 +4941,7 @@
       <c r="J135" s="16"/>
     </row>
     <row r="136" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="55">
+      <c r="A136" s="45">
         <v>8</v>
       </c>
       <c r="B136" s="15" t="s">
@@ -4993,12 +4968,12 @@
       <c r="I136" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J136" s="55" t="s">
+      <c r="J136" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="55"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="15" t="s">
         <v>39</v>
       </c>
@@ -5023,10 +4998,10 @@
       <c r="I137" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J137" s="55"/>
+      <c r="J137" s="45"/>
     </row>
     <row r="138" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="55">
+      <c r="A138" s="45">
         <v>0</v>
       </c>
       <c r="B138" s="15" t="s">
@@ -5053,12 +5028,12 @@
       <c r="I138" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J138" s="55" t="s">
+      <c r="J138" s="45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="55"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="15" t="s">
         <v>39</v>
       </c>
@@ -5083,10 +5058,10 @@
       <c r="I139" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J139" s="55"/>
+      <c r="J139" s="45"/>
     </row>
     <row r="140" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="55">
+      <c r="A140" s="45">
         <v>-8</v>
       </c>
       <c r="B140" s="15" t="s">
@@ -5113,12 +5088,12 @@
       <c r="I140" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J140" s="56" t="s">
+      <c r="J140" s="73" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="55"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="15" t="s">
         <v>39</v>
       </c>
@@ -5143,7 +5118,7 @@
       <c r="I141" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J141" s="56"/>
+      <c r="J141" s="73"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
@@ -5170,12 +5145,12 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:13" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="116"/>
+      <c r="A144" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="66"/>
       <c r="C144" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D144" s="33"/>
       <c r="E144" s="33"/>
@@ -5184,31 +5159,31 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:10" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="B145" s="116"/>
+      <c r="A145" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145" s="66"/>
       <c r="C145" s="36"/>
       <c r="D145" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E145" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="F145" s="118"/>
+        <v>119</v>
+      </c>
+      <c r="E145" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="68"/>
       <c r="G145" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H145" s="38"/>
     </row>
     <row r="146" spans="1:10" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="D146" s="97"/>
+        <v>122</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="46"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -6332,79 +6307,132 @@
     </row>
     <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D15:J18"/>
-    <mergeCell ref="A15:C18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G119"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I99:J105"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A121:J121"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C119"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C105"/>
-    <mergeCell ref="A107:C113"/>
-    <mergeCell ref="I97:J97"/>
+  <mergeCells count="217">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="E41:F45"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="I41:J45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="C41:D45"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="I107:J113"/>
     <mergeCell ref="C71:D71"/>
@@ -6429,134 +6457,74 @@
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="I41:J45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="C41:D45"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="E41:F45"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A99:C105"/>
+    <mergeCell ref="A107:C113"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I99:J105"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C119"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="D15:J18"/>
+    <mergeCell ref="A15:C18"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G119"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="G124:H124"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
